--- a/源码验收问题.xlsx
+++ b/源码验收问题.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,11 +61,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>截图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包出现错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、严格按照文档说明。
+2、检查node版本、electron版本、是否有安装gulp
+3、系统不一样，可能会造成一些问题，故执行操作：
+删除sealtalk-desktop-ent-src\node_modules里非RongIMLib目录的所有文件，并执行npm install命令重新安装相关模块。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -115,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,11 +153,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -168,6 +194,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -187,13 +222,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>2038350</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1007269</xdr:rowOff>
@@ -215,6 +250,44 @@
         <a:xfrm>
           <a:off x="8382000" y="628650"/>
           <a:ext cx="1981200" cy="959644"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1457324</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1076324</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3305175" y="2143124"/>
+          <a:ext cx="1428749" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -513,24 +586,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="66.25" customWidth="1"/>
-    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="3" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="66.25" customWidth="1"/>
+    <col min="6" max="6" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -539,16 +612,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -558,13 +634,14 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="4"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -574,13 +651,14 @@
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="5"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -590,46 +668,58 @@
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>42907</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
     </row>
   </sheetData>

--- a/源码验收问题.xlsx
+++ b/源码验收问题.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,70 @@
 2、检查node版本、electron版本、是否有安装gulp
 3、系统不一样，可能会造成一些问题，故执行操作：
 删除sealtalk-desktop-ent-src\node_modules里非RongIMLib目录的所有文件，并执行npm install命令重新安装相关模块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓的图片缩略图不显示,
+ios的文件icon不显示
+pc端的文件icon也不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件下载后不提示文件位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓群组内，我点了定位，
+会提示key鉴权失败，请重新绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要自己去高德地图申请Appkey，然后与SHA1进行绑定，并且将AndroidMainIfest中的
+如图位置替换自己的Appkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下载位置是app系统设定了专门存放的位置，用户无法任意存取，下载位置 对用户来说无意义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件，图片转发bug引起，已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Android端，导航栏多了名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已取消</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换数据库，可以用旧数据库登陆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hbm.xml模块指定了数据库名称，已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1、检查服务器根目录下是否有upload/images/目录。
+2、检查/upload/images/目录下是否有默认头像PersonImg.png
+3、检查数据表中对应成员头像数据是否为空(t_member表-&gt;logo字段,t_cutlogtemp表)
+4、检查/upload/images/目录下是否存在数据表中记录的头像文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auth2登陆获取未授权token覆盖问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、去掉已存在判断。加入uuid唯一码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,7 +168,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -164,44 +242,132 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -288,6 +454,120 @@
         <a:xfrm>
           <a:off x="3305175" y="2143124"/>
           <a:ext cx="1428749" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2047875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10772775" y="3800475"/>
+          <a:ext cx="1962150" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1333499</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>504825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4133850" y="4667250"/>
+          <a:ext cx="1333499" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1780993</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>342862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="5172075"/>
+          <a:ext cx="1457143" cy="304762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -588,141 +868,235 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="66.25" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="70.5" customWidth="1"/>
     <col min="6" max="6" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="9">
         <v>42906</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="7"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="19">
         <v>42907</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="10"/>
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="7"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>42907</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="10"/>
+      <c r="E4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
-        <v>42907</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="D5" s="11"/>
       <c r="E5" s="12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
+        <v>42908</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="23">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17">
+        <v>42909</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="24"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="27">
+        <v>42914</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="2"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
